--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karpa\Desktop\ZADANIE BARTEK B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{465F73C3-3B99-4F57-81B7-376D268C3CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E8A111-0DF3-41CB-9290-B2AAF1EC2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ARPU_M1</t>
   </si>
@@ -64,6 +64,27 @@
   <si>
     <t>Data</t>
   </si>
+  <si>
+    <t>ARPU_M1_INTERPOLATED</t>
+  </si>
+  <si>
+    <t>ARPU_M2_INTERPOLATED</t>
+  </si>
+  <si>
+    <t>ARPU_M3_INTERPOLATED</t>
+  </si>
+  <si>
+    <t>ARPU_M4_INTERPOLATED</t>
+  </si>
+  <si>
+    <t>ARPU_M5_INTERPOLATED</t>
+  </si>
+  <si>
+    <t>ARPU_M6_INTERPOLATED</t>
+  </si>
+  <si>
+    <t>ARPU_M7_INTERPOLATED</t>
+  </si>
 </sst>
 </file>
 
@@ -72,13 +93,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,10 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:P362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A362" sqref="A362:I362"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -431,9 +459,12 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +492,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1">
         <v>2.3964953510500657</v>
       </c>
@@ -488,10 +540,10 @@
         <v>19909775.883379661</v>
       </c>
       <c r="I2" s="2">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1">
         <v>2.3751606902768523</v>
       </c>
@@ -517,10 +569,10 @@
         <v>21406082.447004873</v>
       </c>
       <c r="I3" s="2">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1">
         <v>2.4259059777981351</v>
       </c>
@@ -546,10 +598,10 @@
         <v>25332324.516823992</v>
       </c>
       <c r="I4" s="2">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="1">
         <v>2.3953828460660667</v>
       </c>
@@ -575,10 +627,10 @@
         <v>27378682.908493035</v>
       </c>
       <c r="I5" s="2">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="1">
         <v>2.2861023004986443</v>
       </c>
@@ -604,10 +656,10 @@
         <v>25281649.360982679</v>
       </c>
       <c r="I6" s="2">
-        <v>45296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="1">
         <v>2.3164423705533514</v>
       </c>
@@ -633,10 +685,10 @@
         <v>30804339.516687486</v>
       </c>
       <c r="I7" s="2">
-        <v>45297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="1">
         <v>2.3055119386171143</v>
       </c>
@@ -662,10 +714,10 @@
         <v>30021302.110370781</v>
       </c>
       <c r="I8" s="2">
-        <v>45298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15">
       <c r="A9" s="1">
         <v>2.4828401563990861</v>
       </c>
@@ -691,10 +743,10 @@
         <v>36823874.461496063</v>
       </c>
       <c r="I9" s="2">
-        <v>45299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="1">
         <v>2.5230014199269157</v>
       </c>
@@ -720,10 +772,10 @@
         <v>37954663.565821037</v>
       </c>
       <c r="I10" s="2">
-        <v>45300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="1">
         <v>2.6075041023696102</v>
       </c>
@@ -749,10 +801,10 @@
         <v>43804853.502172902</v>
       </c>
       <c r="I11" s="2">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="1">
         <v>2.3122545706234567</v>
       </c>
@@ -778,10 +830,10 @@
         <v>40017791.465010703</v>
       </c>
       <c r="I12" s="2">
-        <v>45302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="1">
         <v>2.561798791565074</v>
       </c>
@@ -807,10 +859,10 @@
         <v>44654167.757008776</v>
       </c>
       <c r="I13" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="1">
         <v>2.5947648634500924</v>
       </c>
@@ -836,10 +888,10 @@
         <v>51320189.396818064</v>
       </c>
       <c r="I14" s="2">
-        <v>45304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="1">
         <v>2.4429500612221307</v>
       </c>
@@ -865,10 +917,10 @@
         <v>48378094.680668712</v>
       </c>
       <c r="I15" s="2">
-        <v>45305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="1">
         <v>2.3563294300997146</v>
       </c>
@@ -894,10 +946,10 @@
         <v>52670180.743113294</v>
       </c>
       <c r="I16" s="2">
-        <v>45306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="1">
         <v>2.4801804612200677</v>
       </c>
@@ -923,10 +975,10 @@
         <v>49027380.132266559</v>
       </c>
       <c r="I17" s="2">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="1">
         <v>2.4878645704475248</v>
       </c>
@@ -952,10 +1004,10 @@
         <v>54204028.826958567</v>
       </c>
       <c r="I18" s="2">
-        <v>45308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="1">
         <v>2.3378533826133845</v>
       </c>
@@ -981,10 +1033,10 @@
         <v>55569785.340337999</v>
       </c>
       <c r="I19" s="2">
-        <v>45309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="1">
         <v>2.3458966279997031</v>
       </c>
@@ -1010,10 +1062,10 @@
         <v>56545917.004637294</v>
       </c>
       <c r="I20" s="2">
-        <v>45310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="1">
         <v>2.2807084333591252</v>
       </c>
@@ -1039,10 +1091,10 @@
         <v>62434481.920850731</v>
       </c>
       <c r="I21" s="2">
-        <v>45311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="1">
         <v>2.2890855915406361</v>
       </c>
@@ -1068,10 +1120,10 @@
         <v>60200414.499419451</v>
       </c>
       <c r="I22" s="2">
-        <v>45312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="1">
         <v>2.3766333259342014</v>
       </c>
@@ -1097,10 +1149,10 @@
         <v>58974405.150546171</v>
       </c>
       <c r="I23" s="2">
-        <v>45313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="1">
         <v>2.2114255081667977</v>
       </c>
@@ -1126,10 +1178,10 @@
         <v>58186834.689152271</v>
       </c>
       <c r="I24" s="2">
-        <v>45314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="1">
         <v>1.9885885297148758</v>
       </c>
@@ -1155,10 +1207,10 @@
         <v>60638297.698965408</v>
       </c>
       <c r="I25" s="2">
-        <v>45315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="1">
         <v>31.8194600308811</v>
       </c>
@@ -1184,10 +1236,10 @@
         <v>57593047.851459153</v>
       </c>
       <c r="I26" s="2">
-        <v>45316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="1">
         <v>2.8632401730329562</v>
       </c>
@@ -1213,10 +1265,10 @@
         <v>59219823.028107375</v>
       </c>
       <c r="I27" s="2">
-        <v>45317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="1">
         <v>2.6575769628086716</v>
       </c>
@@ -1242,10 +1294,10 @@
         <v>57757746.450489581</v>
       </c>
       <c r="I28" s="2">
-        <v>45318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="1">
         <v>2.5079884852845797</v>
       </c>
@@ -1271,10 +1323,10 @@
         <v>57622789.762705944</v>
       </c>
       <c r="I29" s="2">
-        <v>45319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="1">
         <v>2.3093720533306739</v>
       </c>
@@ -1300,10 +1352,10 @@
         <v>55673918.832130387</v>
       </c>
       <c r="I30" s="2">
-        <v>45320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="1">
         <v>2.3834808587961938</v>
       </c>
@@ -1329,10 +1381,10 @@
         <v>52599005.998812184</v>
       </c>
       <c r="I31" s="2">
-        <v>45321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="1">
         <v>2.332255712460451</v>
       </c>
@@ -1358,10 +1410,10 @@
         <v>59474664.578312911</v>
       </c>
       <c r="I32" s="2">
-        <v>45322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="1">
         <v>2.2968698599925199</v>
       </c>
@@ -1387,10 +1439,10 @@
         <v>66043726.854096055</v>
       </c>
       <c r="I33" s="2">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="1">
         <v>2.4737148765008738</v>
       </c>
@@ -1416,10 +1468,10 @@
         <v>63442957.962235995</v>
       </c>
       <c r="I34" s="2">
-        <v>45324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="1">
         <v>2.4537319493933487</v>
       </c>
@@ -1445,10 +1497,10 @@
         <v>57758720.06738957</v>
       </c>
       <c r="I35" s="2">
-        <v>45325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="1">
         <v>2.6270021110265054</v>
       </c>
@@ -1474,10 +1526,10 @@
         <v>65392724.60358838</v>
       </c>
       <c r="I36" s="2">
-        <v>45326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="1">
         <v>2.4844624929340671</v>
       </c>
@@ -1503,10 +1555,10 @@
         <v>65657851.05406484</v>
       </c>
       <c r="I37" s="2">
-        <v>45327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="1">
         <v>2.6488705097860832</v>
       </c>
@@ -1532,10 +1584,10 @@
         <v>70378121.340450674</v>
       </c>
       <c r="I38" s="2">
-        <v>45328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="1">
         <v>2.6590070410090458</v>
       </c>
@@ -1561,10 +1613,10 @@
         <v>70839652.733309209</v>
       </c>
       <c r="I39" s="2">
-        <v>45329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="1">
         <v>2.8865910242123807</v>
       </c>
@@ -1590,10 +1642,10 @@
         <v>80083007.747021601</v>
       </c>
       <c r="I40" s="2">
-        <v>45330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="1">
         <v>2.5640303351486184</v>
       </c>
@@ -1619,10 +1671,10 @@
         <v>89650022.081902891</v>
       </c>
       <c r="I41" s="2">
-        <v>45331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="1">
         <v>2.7566263349488533</v>
       </c>
@@ -1648,10 +1700,10 @@
         <v>91842816.049204409</v>
       </c>
       <c r="I42" s="2">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="1">
         <v>2.508681270831846</v>
       </c>
@@ -1677,10 +1729,10 @@
         <v>90860454.064582348</v>
       </c>
       <c r="I43" s="2">
-        <v>45333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="1">
         <v>2.2897969418771789</v>
       </c>
@@ -1706,10 +1758,10 @@
         <v>88371252.596597597</v>
       </c>
       <c r="I44" s="2">
-        <v>45334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="1">
         <v>2.543709913164975</v>
       </c>
@@ -1735,10 +1787,10 @@
         <v>89953114.246401638</v>
       </c>
       <c r="I45" s="2">
-        <v>45335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="1">
         <v>2.2715462342924475</v>
       </c>
@@ -1764,10 +1816,10 @@
         <v>85981310.365961254</v>
       </c>
       <c r="I46" s="2">
-        <v>45336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="1">
         <v>2.3676162503357521</v>
       </c>
@@ -1793,10 +1845,10 @@
         <v>86300431.905448645</v>
       </c>
       <c r="I47" s="2">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="1">
         <v>2.4990426839946389</v>
       </c>
@@ -1822,10 +1874,10 @@
         <v>89859924.99006483</v>
       </c>
       <c r="I48" s="2">
-        <v>45338</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="1">
         <v>2.2525847510083192</v>
       </c>
@@ -1851,10 +1903,10 @@
         <v>93781410.349572212</v>
       </c>
       <c r="I49" s="2">
-        <v>45339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="1">
         <v>2.3239326183447662</v>
       </c>
@@ -1880,10 +1932,10 @@
         <v>102305902.08308499</v>
       </c>
       <c r="I50" s="2">
-        <v>45340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="1">
         <v>2.3916381792986146</v>
       </c>
@@ -1909,10 +1961,10 @@
         <v>93783646.190403849</v>
       </c>
       <c r="I51" s="2">
-        <v>45341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="1">
         <v>2.6130812456224559</v>
       </c>
@@ -1938,10 +1990,10 @@
         <v>104721735.03049767</v>
       </c>
       <c r="I52" s="2">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="1">
         <v>2.5067409878487661</v>
       </c>
@@ -1967,10 +2019,10 @@
         <v>120824598.63084233</v>
       </c>
       <c r="I53" s="2">
-        <v>45343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="1">
         <v>2.4998255381832157</v>
       </c>
@@ -1996,10 +2048,10 @@
         <v>128977042.56284508</v>
       </c>
       <c r="I54" s="2">
-        <v>45344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="1">
         <v>2.4401950346347601</v>
       </c>
@@ -2025,10 +2077,10 @@
         <v>136103563.12405065</v>
       </c>
       <c r="I55" s="2">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="1">
         <v>2.4305585621796437</v>
       </c>
@@ -2054,10 +2106,10 @@
         <v>138111137.5650914</v>
       </c>
       <c r="I56" s="2">
-        <v>45346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="1">
         <v>2.5849785961792584</v>
       </c>
@@ -2083,10 +2135,10 @@
         <v>132526700.86274175</v>
       </c>
       <c r="I57" s="2">
-        <v>45347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="1">
         <v>2.4211972551048824</v>
       </c>
@@ -2112,10 +2164,10 @@
         <v>131154810.17539756</v>
       </c>
       <c r="I58" s="2">
-        <v>45348</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="1">
         <v>2.5554190969317991</v>
       </c>
@@ -2141,10 +2193,10 @@
         <v>139429116.63905397</v>
       </c>
       <c r="I59" s="2">
-        <v>45349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="1">
         <v>2.437413185505183</v>
       </c>
@@ -2170,10 +2222,10 @@
         <v>138765595.34532043</v>
       </c>
       <c r="I60" s="2">
-        <v>45350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="1">
         <v>2.19383612453356</v>
       </c>
@@ -2199,10 +2251,10 @@
         <v>136996161.37850073</v>
       </c>
       <c r="I61" s="2">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="1">
         <v>2.3497331201578735</v>
       </c>
@@ -2228,10 +2280,10 @@
         <v>150549687.43553579</v>
       </c>
       <c r="I62" s="2">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="1">
         <v>2.5615671160597415</v>
       </c>
@@ -2257,10 +2309,10 @@
         <v>158914970.90767008</v>
       </c>
       <c r="I63" s="2">
-        <v>45353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="1">
         <v>2.285701582817131</v>
       </c>
@@ -2286,10 +2338,10 @@
         <v>137057810.38311535</v>
       </c>
       <c r="I64" s="2">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="1">
         <v>2.1368866313884296</v>
       </c>
@@ -2315,10 +2367,10 @@
         <v>131791297.95603529</v>
       </c>
       <c r="I65" s="2">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="1">
         <v>2.2997029355418355</v>
       </c>
@@ -2344,10 +2396,10 @@
         <v>133617467.94799852</v>
       </c>
       <c r="I66" s="2">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="1">
         <v>2.2077430609526014</v>
       </c>
@@ -2373,10 +2425,10 @@
         <v>135423647.28468671</v>
       </c>
       <c r="I67" s="2">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="1">
         <v>2.638050992380566</v>
       </c>
@@ -2402,10 +2454,10 @@
         <v>147344349.5296222</v>
       </c>
       <c r="I68" s="2">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>45571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="1">
         <v>2.4671155474563786</v>
       </c>
@@ -2431,10 +2483,10 @@
         <v>154208108.47525284</v>
       </c>
       <c r="I69" s="2">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="1">
         <v>2.518701850723577</v>
       </c>
@@ -2460,10 +2512,10 @@
         <v>143252564.46736312</v>
       </c>
       <c r="I70" s="2">
-        <v>45360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>45573</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="1">
         <v>2.6199883573546132</v>
       </c>
@@ -2489,10 +2541,10 @@
         <v>148830280.84182489</v>
       </c>
       <c r="I71" s="2">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="1">
         <v>2.6549906601852449</v>
       </c>
@@ -2518,10 +2570,10 @@
         <v>149827660.73294485</v>
       </c>
       <c r="I72" s="2">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="1">
         <v>2.4655082744517633</v>
       </c>
@@ -2547,10 +2599,10 @@
         <v>138857781.1833156</v>
       </c>
       <c r="I73" s="2">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="1">
         <v>2.3305475992160529</v>
       </c>
@@ -2576,10 +2628,10 @@
         <v>136293991.71913663</v>
       </c>
       <c r="I74" s="2">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="1">
         <v>2.5275325861321107</v>
       </c>
@@ -2605,10 +2657,10 @@
         <v>122015088.73536478</v>
       </c>
       <c r="I75" s="2">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="1">
         <v>2.4146150545918217</v>
       </c>
@@ -2634,10 +2686,10 @@
         <v>134356779.40860954</v>
       </c>
       <c r="I76" s="2">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>45579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="1">
         <v>2.479672705372729</v>
       </c>
@@ -2663,10 +2715,10 @@
         <v>135119957.4407354</v>
       </c>
       <c r="I77" s="2">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="1">
         <v>2.3243376140250849</v>
       </c>
@@ -2692,10 +2744,10 @@
         <v>115057046.74287477</v>
       </c>
       <c r="I78" s="2">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="1">
         <v>2.4311545070500582</v>
       </c>
@@ -2721,10 +2773,10 @@
         <v>120508597.70154524</v>
       </c>
       <c r="I79" s="2">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="1">
         <v>2.3351078139110859</v>
       </c>
@@ -2750,10 +2802,10 @@
         <v>106682757.05778028</v>
       </c>
       <c r="I80" s="2">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="1">
         <v>2.224855759731458</v>
       </c>
@@ -2779,10 +2831,10 @@
         <v>114240091.53457057</v>
       </c>
       <c r="I81" s="2">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="1">
         <v>2.1131961041739169</v>
       </c>
@@ -2808,10 +2860,10 @@
         <v>106628138.6184178</v>
       </c>
       <c r="I82" s="2">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>45585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="1">
         <v>2.266899217615749</v>
       </c>
@@ -2837,10 +2889,10 @@
         <v>106177116.42653041</v>
       </c>
       <c r="I83" s="2">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="1">
         <v>2.8496731553587482</v>
       </c>
@@ -2866,10 +2918,10 @@
         <v>100589280.84131092</v>
       </c>
       <c r="I84" s="2">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="1">
         <v>2.7178450535720104</v>
       </c>
@@ -2895,10 +2947,10 @@
         <v>100938252.91244686</v>
       </c>
       <c r="I85" s="2">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="1">
         <v>2.7484680531707775</v>
       </c>
@@ -2924,10 +2976,10 @@
         <v>91619348.890700325</v>
       </c>
       <c r="I86" s="2">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="1">
         <v>2.5286340438601762</v>
       </c>
@@ -2953,10 +3005,10 @@
         <v>89171163.324234605</v>
       </c>
       <c r="I87" s="2">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="1">
         <v>2.4281907723250136</v>
       </c>
@@ -2982,10 +3034,10 @@
         <v>90515118.172855109</v>
       </c>
       <c r="I88" s="2">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="1">
         <v>2.1301221819104152</v>
       </c>
@@ -3009,10 +3061,10 @@
         <v>88677916.094492421</v>
       </c>
       <c r="I89" s="2">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>45592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="1">
         <v>2.2398929391200668</v>
       </c>
@@ -3036,10 +3088,10 @@
         <v>86693987.777205244</v>
       </c>
       <c r="I90" s="2">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="1">
         <v>2.4166545849753955</v>
       </c>
@@ -3063,10 +3115,10 @@
         <v>98312343.913431317</v>
       </c>
       <c r="I91" s="2">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="1">
         <v>2.4918468509073848</v>
       </c>
@@ -3090,10 +3142,10 @@
         <v>97386969.781864583</v>
       </c>
       <c r="I92" s="2">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="1">
         <v>2.5431938853341634</v>
       </c>
@@ -3117,10 +3169,10 @@
         <v>87706848.12290889</v>
       </c>
       <c r="I93" s="2">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="1">
         <v>2.4717896364927059</v>
       </c>
@@ -3144,10 +3196,10 @@
         <v>107394532.2301413</v>
       </c>
       <c r="I94" s="2">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="1">
         <v>2.5740552217556569</v>
       </c>
@@ -3173,10 +3225,10 @@
         <v>98749915.398144796</v>
       </c>
       <c r="I95" s="2">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="1">
         <v>2.5908595385973583</v>
       </c>
@@ -3202,10 +3254,10 @@
         <v>113063600.54413807</v>
       </c>
       <c r="I96" s="2">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="1">
         <v>2.5922224494028114</v>
       </c>
@@ -3231,10 +3283,10 @@
         <v>104467115.59414689</v>
       </c>
       <c r="I97" s="2">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="1">
         <v>2.5073497658941699</v>
       </c>
@@ -3260,10 +3312,10 @@
         <v>119491534.77879359</v>
       </c>
       <c r="I98" s="2">
-        <v>45388</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="1">
         <v>2.7788806761520535</v>
       </c>
@@ -3289,10 +3341,10 @@
         <v>132669502.13292874</v>
       </c>
       <c r="I99" s="2">
-        <v>45389</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>45602</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="1">
         <v>2.602464700225942</v>
       </c>
@@ -3318,10 +3370,10 @@
         <v>124108991.08786522</v>
       </c>
       <c r="I100" s="2">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="1">
         <v>2.426875281189965</v>
       </c>
@@ -3347,10 +3399,10 @@
         <v>127745790.5121686</v>
       </c>
       <c r="I101" s="2">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="1">
         <v>2.5674380520469406</v>
       </c>
@@ -3376,10 +3428,10 @@
         <v>124088305.70103151</v>
       </c>
       <c r="I102" s="2">
-        <v>45392</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="1">
         <v>2.3314655632004238</v>
       </c>
@@ -3405,10 +3457,10 @@
         <v>117501984.13279186</v>
       </c>
       <c r="I103" s="2">
-        <v>45393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>45606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="1">
         <v>2.1510278296742493</v>
       </c>
@@ -3434,10 +3486,10 @@
         <v>97126594.929118097</v>
       </c>
       <c r="I104" s="2">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="1">
         <v>2.2783639779717717</v>
       </c>
@@ -3463,10 +3515,10 @@
         <v>97897312.82770291</v>
       </c>
       <c r="I105" s="2">
-        <v>45395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="1">
         <v>2.2463259388219474</v>
       </c>
@@ -3492,10 +3544,10 @@
         <v>108980477.64725888</v>
       </c>
       <c r="I106" s="2">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="1">
         <v>2.3556714221253801</v>
       </c>
@@ -3521,10 +3573,10 @@
         <v>95467640.555726916</v>
       </c>
       <c r="I107" s="2">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="1">
         <v>2.6194031125575936</v>
       </c>
@@ -3550,10 +3602,10 @@
         <v>102789498.67426801</v>
       </c>
       <c r="I108" s="2">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="1">
         <v>2.3779159639342708</v>
       </c>
@@ -3579,10 +3631,10 @@
         <v>85984133.22243385</v>
       </c>
       <c r="I109" s="2">
-        <v>45399</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>45612</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="1">
         <v>2.6438814367146404</v>
       </c>
@@ -3608,10 +3660,10 @@
         <v>95030250.023378313</v>
       </c>
       <c r="I110" s="2">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>45613</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="1">
         <v>2.4165603012888912</v>
       </c>
@@ -3637,10 +3689,10 @@
         <v>91870327.234979346</v>
       </c>
       <c r="I111" s="2">
-        <v>45401</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="1">
         <v>2.4933293608341422</v>
       </c>
@@ -3666,10 +3718,10 @@
         <v>98405672.416631266</v>
       </c>
       <c r="I112" s="2">
-        <v>45402</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="1">
         <v>2.5639860372563676</v>
       </c>
@@ -3695,10 +3747,10 @@
         <v>112047827.24295315</v>
       </c>
       <c r="I113" s="2">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="1">
         <v>2.6544830654171148</v>
       </c>
@@ -3724,10 +3776,10 @@
         <v>105355169.27609146</v>
       </c>
       <c r="I114" s="2">
-        <v>45404</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="1">
         <v>2.5291716880786259</v>
       </c>
@@ -3753,10 +3805,10 @@
         <v>98679263.080199808</v>
       </c>
       <c r="I115" s="2">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="1">
         <v>2.4165874833364369</v>
       </c>
@@ -3782,10 +3834,10 @@
         <v>84468656.762045577</v>
       </c>
       <c r="I116" s="2">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>45619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="1">
         <v>2.5275223314633513</v>
       </c>
@@ -3811,10 +3863,10 @@
         <v>82859154.072015196</v>
       </c>
       <c r="I117" s="2">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>45620</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="1">
         <v>2.2175519455911492</v>
       </c>
@@ -3840,10 +3892,10 @@
         <v>62072430.219089195</v>
       </c>
       <c r="I118" s="2">
-        <v>45408</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="1">
         <v>2.3586746737068576</v>
       </c>
@@ -3867,10 +3919,10 @@
         <v>65119400.0360796</v>
       </c>
       <c r="I119" s="2">
-        <v>45409</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="1">
         <v>2.5066840733181728</v>
       </c>
@@ -3894,10 +3946,10 @@
         <v>83613964.600263983</v>
       </c>
       <c r="I120" s="2">
-        <v>45410</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="1">
         <v>2.5013793070664527</v>
       </c>
@@ -3921,10 +3973,10 @@
         <v>74951574.493170083</v>
       </c>
       <c r="I121" s="2">
-        <v>45411</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="1">
         <v>2.3649996068326109</v>
       </c>
@@ -3948,10 +4000,10 @@
         <v>60944764.579023935</v>
       </c>
       <c r="I122" s="2">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="1">
         <v>2.2992759306180015</v>
       </c>
@@ -3975,10 +4027,10 @@
         <v>45280096.105887353</v>
       </c>
       <c r="I123" s="2">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="1">
         <v>2.3491313809093235</v>
       </c>
@@ -4002,10 +4054,10 @@
         <v>52371457.855450347</v>
       </c>
       <c r="I124" s="2">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="1">
         <v>2.258775977432677</v>
       </c>
@@ -4029,10 +4081,10 @@
         <v>50884938.608577676</v>
       </c>
       <c r="I125" s="2">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="1">
         <v>2.6667367015197363</v>
       </c>
@@ -4056,10 +4108,10 @@
         <v>46147082.06745474</v>
       </c>
       <c r="I126" s="2">
-        <v>45416</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="1">
         <v>2.7655674352810595</v>
       </c>
@@ -4083,10 +4135,10 @@
         <v>50596478.190711237</v>
       </c>
       <c r="I127" s="2">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="1">
         <v>2.5433404031412445</v>
       </c>
@@ -4110,10 +4162,10 @@
         <v>62223899.328707725</v>
       </c>
       <c r="I128" s="2">
-        <v>45418</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="1">
         <v>2.5120543177929209</v>
       </c>
@@ -4137,10 +4189,10 @@
         <v>38016975.445798427</v>
       </c>
       <c r="I129" s="2">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="1">
         <v>2.6023086649379001</v>
       </c>
@@ -4164,10 +4216,10 @@
         <v>27846024.071027532</v>
       </c>
       <c r="I130" s="2">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="1">
         <v>2.5065239403309625</v>
       </c>
@@ -4191,10 +4243,10 @@
         <v>18294581.258794237</v>
       </c>
       <c r="I131" s="2">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="1">
         <v>2.4894299745127406</v>
       </c>
@@ -4218,10 +4270,10 @@
         <v>28880080.838761877</v>
       </c>
       <c r="I132" s="2">
-        <v>45422</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="1">
         <v>2.7591546407795362</v>
       </c>
@@ -4247,10 +4299,10 @@
         <v>26255031.527312953</v>
       </c>
       <c r="I133" s="2">
-        <v>45423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="1">
         <v>2.5543682448572884</v>
       </c>
@@ -4276,10 +4328,10 @@
         <v>22358375.289930373</v>
       </c>
       <c r="I134" s="2">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="1">
         <v>2.4746546103379723</v>
       </c>
@@ -4305,10 +4357,10 @@
         <v>44252409.419577919</v>
       </c>
       <c r="I135" s="2">
-        <v>45425</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="1">
         <v>2.3898872892068139</v>
       </c>
@@ -4334,10 +4386,10 @@
         <v>34853679.303738691</v>
       </c>
       <c r="I136" s="2">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="1">
         <v>2.3019320773038539</v>
       </c>
@@ -4363,10 +4415,10 @@
         <v>31035444.404280122</v>
       </c>
       <c r="I137" s="2">
-        <v>45427</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="1">
         <v>2.2925469401110039</v>
       </c>
@@ -4392,10 +4444,10 @@
         <v>28005798.398043625</v>
       </c>
       <c r="I138" s="2">
-        <v>45428</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="1">
         <v>2.2102758288690856</v>
       </c>
@@ -4421,10 +4473,10 @@
         <v>4200853.6524289344</v>
       </c>
       <c r="I139" s="2">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="1">
         <v>2.1938814683337036</v>
       </c>
@@ -4450,10 +4502,10 @@
         <v>34346986.995466597</v>
       </c>
       <c r="I140" s="2">
-        <v>45430</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="1">
         <v>2.2798287774387163</v>
       </c>
@@ -4479,10 +4531,10 @@
         <v>22228986.568585806</v>
       </c>
       <c r="I141" s="2">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="1">
         <v>2.8498670395828123</v>
       </c>
@@ -4508,10 +4560,10 @@
         <v>14215484.095289258</v>
       </c>
       <c r="I142" s="2">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="1">
         <v>2.5293083326863472</v>
       </c>
@@ -4537,10 +4589,10 @@
         <v>5168001.7832316216</v>
       </c>
       <c r="I143" s="2">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="1">
         <v>2.5625328445666322</v>
       </c>
@@ -4564,10 +4616,10 @@
         <v>19446160.865227278</v>
       </c>
       <c r="I144" s="2">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="1">
         <v>2.442526437804573</v>
       </c>
@@ -4591,10 +4643,10 @@
         <v>33115901.514351621</v>
       </c>
       <c r="I145" s="2">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="1">
         <v>2.3728960521078939</v>
       </c>
@@ -4618,10 +4670,10 @@
         <v>20395733.831791874</v>
       </c>
       <c r="I146" s="2">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="1">
         <v>2.4469465659999337</v>
       </c>
@@ -4645,10 +4697,10 @@
         <v>23998146.804421149</v>
       </c>
       <c r="I147" s="2">
-        <v>45437</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="1">
         <v>2.3901807473282073</v>
       </c>
@@ -4672,10 +4724,10 @@
         <v>16899998.53023544</v>
       </c>
       <c r="I148" s="2">
-        <v>45438</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="1">
         <v>2.474235979065273</v>
       </c>
@@ -4699,10 +4751,10 @@
         <v>29396628.555420969</v>
       </c>
       <c r="I149" s="2">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="1">
         <v>2.3320100245061188</v>
       </c>
@@ -4726,10 +4778,10 @@
         <v>5138361.432771557</v>
       </c>
       <c r="I150" s="2">
-        <v>45440</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="1">
         <v>2.3743154442131313</v>
       </c>
@@ -4753,10 +4805,10 @@
         <v>27965771.663276523</v>
       </c>
       <c r="I151" s="2">
-        <v>45441</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="1">
         <v>2.5519420246666344</v>
       </c>
@@ -4780,10 +4832,10 @@
         <v>24915147.273629844</v>
       </c>
       <c r="I152" s="2">
-        <v>45442</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="1">
         <v>2.57563195523</v>
       </c>
@@ -4807,10 +4859,10 @@
         <v>18323467.735945117</v>
       </c>
       <c r="I153" s="2">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="1">
         <v>2.6150402087442242</v>
       </c>
@@ -4834,10 +4886,10 @@
         <v>22859424.366011482</v>
       </c>
       <c r="I154" s="2">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="1">
         <v>2.5693862220151482</v>
       </c>
@@ -4861,10 +4913,10 @@
         <v>38315045.004481487</v>
       </c>
       <c r="I155" s="2">
-        <v>45445</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="1">
         <v>2.7940728491101456</v>
       </c>
@@ -4888,10 +4940,10 @@
         <v>23951657.439596821</v>
       </c>
       <c r="I156" s="2">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="1">
         <v>2.5549622195121917</v>
       </c>
@@ -4915,10 +4967,10 @@
         <v>36153289.473717451</v>
       </c>
       <c r="I157" s="2">
-        <v>45447</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="1">
         <v>2.4860070343425189</v>
       </c>
@@ -4942,10 +4994,10 @@
         <v>9888886.0937944055</v>
       </c>
       <c r="I158" s="2">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="1"/>
       <c r="B159" s="1">
         <v>7.9228153056021586</v>
@@ -4967,10 +5019,10 @@
         <v>40584229.846319243</v>
       </c>
       <c r="I159" s="2">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="1"/>
       <c r="B160" s="1">
         <v>8.0764860726552516</v>
@@ -4992,10 +5044,10 @@
         <v>49317679.338430144</v>
       </c>
       <c r="I160" s="2">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="1"/>
       <c r="B161" s="1">
         <v>7.4426679675910137</v>
@@ -5017,10 +5069,10 @@
         <v>19586675.817626536</v>
       </c>
       <c r="I161" s="2">
-        <v>45451</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="1"/>
       <c r="B162" s="1">
         <v>7.1728506904751352</v>
@@ -5042,10 +5094,10 @@
         <v>14563250.840372825</v>
       </c>
       <c r="I162" s="2">
-        <v>45452</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="1"/>
       <c r="B163" s="1">
         <v>7.3403173996001705</v>
@@ -5067,10 +5119,10 @@
         <v>16210779.549275285</v>
       </c>
       <c r="I163" s="2">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="1"/>
       <c r="B164" s="1">
         <v>7.3400074921416731</v>
@@ -5092,10 +5144,10 @@
         <v>33836584.919831693</v>
       </c>
       <c r="I164" s="2">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="1"/>
       <c r="B165" s="1">
         <v>7.315910772707543</v>
@@ -5117,10 +5169,10 @@
         <v>20271143.519395884</v>
       </c>
       <c r="I165" s="2">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="1"/>
       <c r="B166" s="1">
         <v>7.4749963491869869</v>
@@ -5142,10 +5194,10 @@
         <v>28274404.611114256</v>
       </c>
       <c r="I166" s="2">
-        <v>45456</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="1"/>
       <c r="B167" s="1">
         <v>7.5400368873146935</v>
@@ -5167,10 +5219,10 @@
         <v>16725397.673230922</v>
       </c>
       <c r="I167" s="2">
-        <v>45457</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="1"/>
       <c r="B168" s="1">
         <v>7.7851788072209036</v>
@@ -5192,10 +5244,10 @@
         <v>42375530.023784772</v>
       </c>
       <c r="I168" s="2">
-        <v>45458</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="1"/>
       <c r="B169" s="1">
         <v>7.765902556644253</v>
@@ -5217,10 +5269,10 @@
         <v>27308341.924749587</v>
       </c>
       <c r="I169" s="2">
-        <v>45459</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="1"/>
       <c r="B170" s="1">
         <v>7.7907989894425516</v>
@@ -5242,10 +5294,10 @@
         <v>47178342.678500891</v>
       </c>
       <c r="I170" s="2">
-        <v>45460</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="1"/>
       <c r="B171" s="1">
         <v>7.9373544051768334</v>
@@ -5267,10 +5319,10 @@
         <v>50550640.064302377</v>
       </c>
       <c r="I171" s="2">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="1"/>
       <c r="B172" s="1">
         <v>7.7056620167350776</v>
@@ -5292,10 +5344,10 @@
         <v>39928327.461609222</v>
       </c>
       <c r="I172" s="2">
-        <v>45462</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="1"/>
       <c r="B173" s="1">
         <v>7.6524903356088583</v>
@@ -5317,10 +5369,10 @@
         <v>44547925.751179673</v>
       </c>
       <c r="I173" s="2">
-        <v>45463</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="1"/>
       <c r="B174" s="1">
         <v>7.5330154354555452</v>
@@ -5342,10 +5394,10 @@
         <v>39239802.783284232</v>
       </c>
       <c r="I174" s="2">
-        <v>45464</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="1">
         <v>2.4250816217337197</v>
       </c>
@@ -5371,10 +5423,10 @@
         <v>39884400.772475548</v>
       </c>
       <c r="I175" s="2">
-        <v>45465</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="1">
         <v>2.3977169531559528</v>
       </c>
@@ -5398,10 +5450,10 @@
         <v>52023057.061189488</v>
       </c>
       <c r="I176" s="2">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="1">
         <v>2.1552715745054059</v>
       </c>
@@ -5425,10 +5477,10 @@
         <v>44288193.769474998</v>
       </c>
       <c r="I177" s="2">
-        <v>45467</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="1">
         <v>2.5811950351825352</v>
       </c>
@@ -5452,10 +5504,10 @@
         <v>42995779.77149453</v>
       </c>
       <c r="I178" s="2">
-        <v>45468</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="1">
         <v>2.4825994704912655</v>
       </c>
@@ -5479,10 +5531,10 @@
         <v>67886636.522094727</v>
       </c>
       <c r="I179" s="2">
-        <v>45469</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="1">
         <v>2.3121196470118721</v>
       </c>
@@ -5506,10 +5558,10 @@
         <v>42179932.227579288</v>
       </c>
       <c r="I180" s="2">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="1">
         <v>2.2076481552456313</v>
       </c>
@@ -5533,10 +5585,10 @@
         <v>55200201.083204426</v>
       </c>
       <c r="I181" s="2">
-        <v>45471</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="1">
         <v>2.4762312146037004</v>
       </c>
@@ -5562,10 +5614,10 @@
         <v>48771050.894985661</v>
       </c>
       <c r="I182" s="2">
-        <v>45472</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="1">
         <v>2.3889267152693385</v>
       </c>
@@ -5591,10 +5643,10 @@
         <v>57204448.857918695</v>
       </c>
       <c r="I183" s="2">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="1">
         <v>2.4173903014015439</v>
       </c>
@@ -5620,10 +5672,10 @@
         <v>69093539.731035843</v>
       </c>
       <c r="I184" s="2">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="1">
         <v>2.4739538981936997</v>
       </c>
@@ -5649,10 +5701,10 @@
         <v>82565053.400037795</v>
       </c>
       <c r="I185" s="2">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="1">
         <v>2.58483382773194</v>
       </c>
@@ -5678,10 +5730,10 @@
         <v>74554002.596775055</v>
       </c>
       <c r="I186" s="2">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="1">
         <v>2.6790408858247474</v>
       </c>
@@ -5707,10 +5759,10 @@
         <v>86076432.033190653</v>
       </c>
       <c r="I187" s="2">
-        <v>45477</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="1">
         <v>2.5527946890366944</v>
       </c>
@@ -5736,10 +5788,10 @@
         <v>84547330.966828272</v>
       </c>
       <c r="I188" s="2">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="1">
         <v>2.4413299134217223</v>
       </c>
@@ -5765,10 +5817,10 @@
         <v>91315149.500609934</v>
       </c>
       <c r="I189" s="2">
-        <v>45479</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="1">
         <v>2.40000462860645</v>
       </c>
@@ -5794,10 +5846,10 @@
         <v>84940141.80506666</v>
       </c>
       <c r="I190" s="2">
-        <v>45480</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="1">
         <v>2.6161843059964855</v>
       </c>
@@ -5823,10 +5875,10 @@
         <v>96348341.298790962</v>
       </c>
       <c r="I191" s="2">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="1">
         <v>2.5678719483025123</v>
       </c>
@@ -5852,10 +5904,10 @@
         <v>125299451.59748709</v>
       </c>
       <c r="I192" s="2">
-        <v>45482</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="1">
         <v>2.521068526235879</v>
       </c>
@@ -5881,10 +5933,10 @@
         <v>115211965.61675081</v>
       </c>
       <c r="I193" s="2">
-        <v>45483</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="1">
         <v>2.2993720285873716</v>
       </c>
@@ -5910,10 +5962,10 @@
         <v>114175584.81073417</v>
       </c>
       <c r="I194" s="2">
-        <v>45484</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="1">
         <v>2.4197452155785517</v>
       </c>
@@ -5939,10 +5991,10 @@
         <v>155477217.9879522</v>
       </c>
       <c r="I195" s="2">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="1">
         <v>2.3788182262881801</v>
       </c>
@@ -5968,10 +6020,10 @@
         <v>157623314.52655718</v>
       </c>
       <c r="I196" s="2">
-        <v>45486</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="1">
         <v>2.232242460170899</v>
       </c>
@@ -5997,10 +6049,10 @@
         <v>158577242.45239401</v>
       </c>
       <c r="I197" s="2">
-        <v>45487</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="1">
         <v>2.1400744546075519</v>
       </c>
@@ -6026,10 +6078,10 @@
         <v>138091613.09830555</v>
       </c>
       <c r="I198" s="2">
-        <v>45488</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="1">
         <v>2.1790664934142954</v>
       </c>
@@ -6055,10 +6107,10 @@
         <v>182105402.59322342</v>
       </c>
       <c r="I199" s="2">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="1">
         <v>2.7454866026231093</v>
       </c>
@@ -6084,10 +6136,10 @@
         <v>157376754.36449757</v>
       </c>
       <c r="I200" s="2">
-        <v>45490</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="1">
         <v>2.5592444897271318</v>
       </c>
@@ -6113,10 +6165,10 @@
         <v>154937874.67650899</v>
       </c>
       <c r="I201" s="2">
-        <v>45491</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="1">
         <v>2.5717117599966635</v>
       </c>
@@ -6142,10 +6194,10 @@
         <v>168515848.68472746</v>
       </c>
       <c r="I202" s="2">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="1">
         <v>2.4764431086117042</v>
       </c>
@@ -6171,10 +6223,10 @@
         <v>186883576.33989909</v>
       </c>
       <c r="I203" s="2">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="1">
         <v>2.4118733689609297</v>
       </c>
@@ -6200,10 +6252,10 @@
         <v>196401478.84298429</v>
       </c>
       <c r="I204" s="2">
-        <v>45494</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="1">
         <v>2.2999596668005973</v>
       </c>
@@ -6229,10 +6281,10 @@
         <v>195848706.70220095</v>
       </c>
       <c r="I205" s="2">
-        <v>45495</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="1">
         <v>2.6130117717473658</v>
       </c>
@@ -6258,10 +6310,10 @@
         <v>215319521.10374001</v>
       </c>
       <c r="I206" s="2">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="1">
         <v>2.1971234636776713</v>
       </c>
@@ -6287,10 +6339,10 @@
         <v>259819031.69165054</v>
       </c>
       <c r="I207" s="2">
-        <v>45497</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="1">
         <v>2.3460074396480382</v>
       </c>
@@ -6316,10 +6368,10 @@
         <v>224165611.36074007</v>
       </c>
       <c r="I208" s="2">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="1">
         <v>2.2731433679001722</v>
       </c>
@@ -6345,10 +6397,10 @@
         <v>241960744.58066159</v>
       </c>
       <c r="I209" s="2">
-        <v>45499</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="1">
         <v>2.4314204251140197</v>
       </c>
@@ -6374,10 +6426,10 @@
         <v>243068255.72683194</v>
       </c>
       <c r="I210" s="2">
-        <v>45500</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="1">
         <v>2.5115711914467509</v>
       </c>
@@ -6403,10 +6455,10 @@
         <v>267238975.53092414</v>
       </c>
       <c r="I211" s="2">
-        <v>45501</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="1">
         <v>2.6660145548848622</v>
       </c>
@@ -6432,10 +6484,10 @@
         <v>244609248.1723446</v>
       </c>
       <c r="I212" s="2">
-        <v>45502</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="1">
         <v>2.4429540827581349</v>
       </c>
@@ -6461,10 +6513,10 @@
         <v>282500961.02340364</v>
       </c>
       <c r="I213" s="2">
-        <v>45503</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="1">
         <v>2.7629307140921209</v>
       </c>
@@ -6490,10 +6542,10 @@
         <v>283113380.03854018</v>
       </c>
       <c r="I214" s="2">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="1">
         <v>2.6663481138032115</v>
       </c>
@@ -6519,10 +6571,10 @@
         <v>316255552.8824693</v>
       </c>
       <c r="I215" s="2">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="1">
         <v>2.4824240745897717</v>
       </c>
@@ -6548,10 +6600,10 @@
         <v>297054396.42751241</v>
       </c>
       <c r="I216" s="2">
-        <v>45506</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="1">
         <v>2.570351841028832</v>
       </c>
@@ -6575,10 +6627,10 @@
         <v>296227188.56664503</v>
       </c>
       <c r="I217" s="2">
-        <v>45507</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="1">
         <v>2.3669362345926492</v>
       </c>
@@ -6602,10 +6654,10 @@
         <v>280968558.45241165</v>
       </c>
       <c r="I218" s="2">
-        <v>45508</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="1">
         <v>2.2824917339490352</v>
       </c>
@@ -6629,10 +6681,10 @@
         <v>270185927.27004588</v>
       </c>
       <c r="I219" s="2">
-        <v>45509</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="1">
         <v>2.4199367891194861</v>
       </c>
@@ -6656,10 +6708,10 @@
         <v>270192611.87680918</v>
       </c>
       <c r="I220" s="2">
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="1">
         <v>2.2381467335539345</v>
       </c>
@@ -6683,10 +6735,10 @@
         <v>261833338.97926325</v>
       </c>
       <c r="I221" s="2">
-        <v>45511</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>45724</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="1">
         <v>2.2738271764895384</v>
       </c>
@@ -6710,10 +6762,10 @@
         <v>267590655.28185216</v>
       </c>
       <c r="I222" s="2">
-        <v>45512</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="1">
         <v>2.3431642993741173</v>
       </c>
@@ -6737,10 +6789,10 @@
         <v>259195590.15392202</v>
       </c>
       <c r="I223" s="2">
-        <v>45513</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="1">
         <v>2.3921088080885848</v>
       </c>
@@ -6766,10 +6818,10 @@
         <v>230572361.16692132</v>
       </c>
       <c r="I224" s="2">
-        <v>45514</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="1">
         <v>2.5688977913503739</v>
       </c>
@@ -6795,10 +6847,10 @@
         <v>247094239.76375142</v>
       </c>
       <c r="I225" s="2">
-        <v>45515</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="1">
         <v>2.5953389997581269</v>
       </c>
@@ -6824,10 +6876,10 @@
         <v>257740464.42044976</v>
       </c>
       <c r="I226" s="2">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="1">
         <v>2.5931456960285759</v>
       </c>
@@ -6853,10 +6905,10 @@
         <v>243307727.00853464</v>
       </c>
       <c r="I227" s="2">
-        <v>45517</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="1">
         <v>2.395767633731257</v>
       </c>
@@ -6882,10 +6934,10 @@
         <v>276155901.98130345</v>
       </c>
       <c r="I228" s="2">
-        <v>45518</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="1">
         <v>2.5394248145241018</v>
       </c>
@@ -6911,10 +6963,10 @@
         <v>294204057.42895943</v>
       </c>
       <c r="I229" s="2">
-        <v>45519</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="1">
         <v>2.3990839638271204</v>
       </c>
@@ -6940,10 +6992,10 @@
         <v>292502107.89738673</v>
       </c>
       <c r="I230" s="2">
-        <v>45520</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="1">
         <v>2.4653747806927653</v>
       </c>
@@ -6969,10 +7021,10 @@
         <v>290271920.90228093</v>
       </c>
       <c r="I231" s="2">
-        <v>45521</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="1">
         <v>2.4908361345322656</v>
       </c>
@@ -6998,10 +7050,10 @@
         <v>294081252.41278493</v>
       </c>
       <c r="I232" s="2">
-        <v>45522</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="1">
         <v>2.2761935712362202</v>
       </c>
@@ -7027,10 +7079,10 @@
         <v>276738865.18001318</v>
       </c>
       <c r="I233" s="2">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="1">
         <v>2.2178796058690615</v>
       </c>
@@ -7056,10 +7108,10 @@
         <v>267280038.40996912</v>
       </c>
       <c r="I234" s="2">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="1">
         <v>2.3389304914698776</v>
       </c>
@@ -7085,10 +7137,10 @@
         <v>301042431.39643395</v>
       </c>
       <c r="I235" s="2">
-        <v>45525</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="1">
         <v>2.4325588968395229</v>
       </c>
@@ -7114,10 +7166,10 @@
         <v>353318499.75120264</v>
       </c>
       <c r="I236" s="2">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="1">
         <v>2.3644593318664349</v>
       </c>
@@ -7143,10 +7195,10 @@
         <v>327550100.88318443</v>
       </c>
       <c r="I237" s="2">
-        <v>45527</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="1">
         <v>2.4802974066590169</v>
       </c>
@@ -7172,10 +7224,10 @@
         <v>319563357.81662792</v>
       </c>
       <c r="I238" s="2">
-        <v>45528</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="1">
         <v>2.2087475374266643</v>
       </c>
@@ -7201,10 +7253,10 @@
         <v>306077855.79736674</v>
       </c>
       <c r="I239" s="2">
-        <v>45529</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="1">
         <v>2.2805514969820719</v>
       </c>
@@ -7230,10 +7282,10 @@
         <v>328049053.39653933</v>
       </c>
       <c r="I240" s="2">
-        <v>45530</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="1">
         <v>2.5753695561655379</v>
       </c>
@@ -7259,10 +7311,10 @@
         <v>370643145.32771564</v>
       </c>
       <c r="I241" s="2">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="1">
         <v>2.3359070063619525</v>
       </c>
@@ -7288,10 +7340,10 @@
         <v>371962488.52494758</v>
       </c>
       <c r="I242" s="2">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="1">
         <v>2.3931819547774156</v>
       </c>
@@ -7317,10 +7369,10 @@
         <v>415211217.63919812</v>
       </c>
       <c r="I243" s="2">
-        <v>45533</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="1">
         <v>2.4630021071051833</v>
       </c>
@@ -7344,10 +7396,10 @@
         <v>428052075.04646581</v>
       </c>
       <c r="I244" s="2">
-        <v>45534</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="1">
         <v>2.6495417475303968</v>
       </c>
@@ -7371,10 +7423,10 @@
         <v>436782574.02102011</v>
       </c>
       <c r="I245" s="2">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="1">
         <v>2.7305564655367047</v>
       </c>
@@ -7398,10 +7450,10 @@
         <v>452352013.44985121</v>
       </c>
       <c r="I246" s="2">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="1">
         <v>2.2198814721132765</v>
       </c>
@@ -7425,10 +7477,10 @@
         <v>480550141.18452722</v>
       </c>
       <c r="I247" s="2">
-        <v>45537</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="1">
         <v>2.6855088566083194</v>
       </c>
@@ -7452,10 +7504,10 @@
         <v>465540351.75574481</v>
       </c>
       <c r="I248" s="2">
-        <v>45538</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="1">
         <v>2.452702692748324</v>
       </c>
@@ -7479,10 +7531,10 @@
         <v>440885989.50094455</v>
       </c>
       <c r="I249" s="2">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="1">
         <v>2.5612473209139903</v>
       </c>
@@ -7506,10 +7558,10 @@
         <v>465126278.93661404</v>
       </c>
       <c r="I250" s="2">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="1">
         <v>2.2367156658796157</v>
       </c>
@@ -7533,10 +7585,10 @@
         <v>515905512.82065845</v>
       </c>
       <c r="I251" s="2">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="1">
         <v>2.5220307909524866</v>
       </c>
@@ -7560,10 +7612,10 @@
         <v>539123539.2273078</v>
       </c>
       <c r="I252" s="2">
-        <v>45542</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="1">
         <v>2.4812617140875353</v>
       </c>
@@ -7587,10 +7639,10 @@
         <v>521434886.33396178</v>
       </c>
       <c r="I253" s="2">
-        <v>45543</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="1">
         <v>2.1772303448805275</v>
       </c>
@@ -7616,10 +7668,10 @@
         <v>522171785.29641891</v>
       </c>
       <c r="I254" s="2">
-        <v>45544</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="1">
         <v>2.2093254473325517</v>
       </c>
@@ -7645,10 +7697,10 @@
         <v>503081060.73472381</v>
       </c>
       <c r="I255" s="2">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="1">
         <v>2.2782227094267222</v>
       </c>
@@ -7674,10 +7726,10 @@
         <v>536863789.81075728</v>
       </c>
       <c r="I256" s="2">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="1">
         <v>2.1796060106887198</v>
       </c>
@@ -7703,10 +7755,10 @@
         <v>505296744.2112242</v>
       </c>
       <c r="I257" s="2">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="1">
         <v>2.6701812446220297</v>
       </c>
@@ -7732,10 +7784,10 @@
         <v>490379214.70613259</v>
       </c>
       <c r="I258" s="2">
-        <v>45548</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="1">
         <v>2.7545887103534636</v>
       </c>
@@ -7761,10 +7813,10 @@
         <v>511333183.4498651</v>
       </c>
       <c r="I259" s="2">
-        <v>45549</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="1">
         <v>2.4287239599914665</v>
       </c>
@@ -7790,10 +7842,10 @@
         <v>463038993.96542585</v>
       </c>
       <c r="I260" s="2">
-        <v>45550</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="1">
         <v>2.5840308423131724</v>
       </c>
@@ -7819,10 +7871,10 @@
         <v>476451611.74935853</v>
       </c>
       <c r="I261" s="2">
-        <v>45551</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="1">
         <v>2.4732519818847551</v>
       </c>
@@ -7848,10 +7900,10 @@
         <v>447219816.33563232</v>
       </c>
       <c r="I262" s="2">
-        <v>45552</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="1">
         <v>2.2773474777176377</v>
       </c>
@@ -7877,10 +7929,10 @@
         <v>422290717.30890846</v>
       </c>
       <c r="I263" s="2">
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="1">
         <v>2.3041045912936458</v>
       </c>
@@ -7906,10 +7958,10 @@
         <v>432005293.09316432</v>
       </c>
       <c r="I264" s="2">
-        <v>45554</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="1">
         <v>2.3336148077509486</v>
       </c>
@@ -7935,10 +7987,10 @@
         <v>466646483.19113636</v>
       </c>
       <c r="I265" s="2">
-        <v>45555</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="1">
         <v>2.5250603201612498</v>
       </c>
@@ -7964,10 +8016,10 @@
         <v>464731445.8865363</v>
       </c>
       <c r="I266" s="2">
-        <v>45556</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="1">
         <v>2.4503593892383648</v>
       </c>
@@ -7993,10 +8045,10 @@
         <v>452287213.9059642</v>
       </c>
       <c r="I267" s="2">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="1">
         <v>2.5281440902014718</v>
       </c>
@@ -8022,10 +8074,10 @@
         <v>421877308.73723143</v>
       </c>
       <c r="I268" s="2">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="1">
         <v>2.5023897693750747</v>
       </c>
@@ -8051,10 +8103,10 @@
         <v>424824124.36070496</v>
       </c>
       <c r="I269" s="2">
-        <v>45559</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="1">
         <v>2.5317543963641347</v>
       </c>
@@ -8080,10 +8132,10 @@
         <v>402707304.28873307</v>
       </c>
       <c r="I270" s="2">
-        <v>45560</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="1">
         <v>2.7533579872926479</v>
       </c>
@@ -8109,10 +8161,10 @@
         <v>428486543.46383929</v>
       </c>
       <c r="I271" s="2">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="1">
         <v>2.6316264051654197</v>
       </c>
@@ -8138,10 +8190,10 @@
         <v>445662250.80663007</v>
       </c>
       <c r="I272" s="2">
-        <v>45562</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="1">
         <v>2.6340133935671686</v>
       </c>
@@ -8167,10 +8219,10 @@
         <v>433848319.92939985</v>
       </c>
       <c r="I273" s="2">
-        <v>45563</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="1">
         <v>2.5568574736860512</v>
       </c>
@@ -8194,10 +8246,10 @@
         <v>386587018.71928215</v>
       </c>
       <c r="I274" s="2">
-        <v>45564</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="1">
         <v>2.532672837833065</v>
       </c>
@@ -8221,10 +8273,10 @@
         <v>427991140.23569399</v>
       </c>
       <c r="I275" s="2">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="1">
         <v>2.3117772193865194</v>
       </c>
@@ -8248,10 +8300,10 @@
         <v>445706073.47775286</v>
       </c>
       <c r="I276" s="2">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="1">
         <v>2.4994602940973647</v>
       </c>
@@ -8275,10 +8327,10 @@
         <v>376679633.19117337</v>
       </c>
       <c r="I277" s="2">
-        <v>45567</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="1">
         <v>2.4755048153758783</v>
       </c>
@@ -8302,10 +8354,10 @@
         <v>343917391.10559219</v>
       </c>
       <c r="I278" s="2">
-        <v>45568</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="1">
         <v>2.2884086328592756</v>
       </c>
@@ -8329,10 +8381,10 @@
         <v>325561573.16617233</v>
       </c>
       <c r="I279" s="2">
-        <v>45569</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="1">
         <v>2.2381672534212873</v>
       </c>
@@ -8358,10 +8410,10 @@
         <v>322069683.11951125</v>
       </c>
       <c r="I280" s="2">
-        <v>45570</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="1">
         <v>2.2139249099753244</v>
       </c>
@@ -8387,10 +8439,10 @@
         <v>333601220.87686682</v>
       </c>
       <c r="I281" s="2">
-        <v>45571</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="1">
         <v>2.3228966619682692</v>
       </c>
@@ -8416,10 +8468,10 @@
         <v>330638954.01610088</v>
       </c>
       <c r="I282" s="2">
-        <v>45572</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="1">
         <v>2.5458784655389803</v>
       </c>
@@ -8445,10 +8497,10 @@
         <v>317555673.51957107</v>
       </c>
       <c r="I283" s="2">
-        <v>45573</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="1">
         <v>2.6699021390199915</v>
       </c>
@@ -8474,10 +8526,10 @@
         <v>326006324.17197013</v>
       </c>
       <c r="I284" s="2">
-        <v>45574</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="1">
         <v>2.7226478300032051</v>
       </c>
@@ -8503,10 +8555,10 @@
         <v>346762993.04425246</v>
       </c>
       <c r="I285" s="2">
-        <v>45575</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="1">
         <v>2.7013122189399432</v>
       </c>
@@ -8532,10 +8584,10 @@
         <v>349081569.62099212</v>
       </c>
       <c r="I286" s="2">
-        <v>45576</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="1">
         <v>2.6632965972421418</v>
       </c>
@@ -8561,10 +8613,10 @@
         <v>402375105.09984976</v>
       </c>
       <c r="I287" s="2">
-        <v>45577</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="1">
         <v>2.5209076705332776</v>
       </c>
@@ -8590,10 +8642,10 @@
         <v>370877341.76436538</v>
       </c>
       <c r="I288" s="2">
-        <v>45578</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="1">
         <v>2.5905069877575406</v>
       </c>
@@ -8619,10 +8671,10 @@
         <v>386166560.21559846</v>
       </c>
       <c r="I289" s="2">
-        <v>45579</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="1">
         <v>2.4190946731499512</v>
       </c>
@@ -8648,10 +8700,10 @@
         <v>350397856.1609925</v>
       </c>
       <c r="I290" s="2">
-        <v>45580</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="1">
         <v>2.1795457210236369</v>
       </c>
@@ -8677,10 +8729,10 @@
         <v>368570662.81258303</v>
       </c>
       <c r="I291" s="2">
-        <v>45581</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="1">
         <v>2.353225709239382</v>
       </c>
@@ -8706,10 +8758,10 @@
         <v>305948102.3193385</v>
       </c>
       <c r="I292" s="2">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="1">
         <v>2.423605554242239</v>
       </c>
@@ -8735,10 +8787,10 @@
         <v>376867684.87967563</v>
       </c>
       <c r="I293" s="2">
-        <v>45583</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="1">
         <v>2.5424103752976759</v>
       </c>
@@ -8764,10 +8816,10 @@
         <v>366513344.96929318</v>
       </c>
       <c r="I294" s="2">
-        <v>45584</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="1">
         <v>2.4295103048928137</v>
       </c>
@@ -8793,10 +8845,10 @@
         <v>365867738.03197062</v>
       </c>
       <c r="I295" s="2">
-        <v>45585</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="1">
         <v>2.4616575112209365</v>
       </c>
@@ -8822,10 +8874,10 @@
         <v>355651159.25297636</v>
       </c>
       <c r="I296" s="2">
-        <v>45586</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="1">
         <v>2.4785758136953815</v>
       </c>
@@ -8851,10 +8903,10 @@
         <v>326726066.47279269</v>
       </c>
       <c r="I297" s="2">
-        <v>45587</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="1">
         <v>2.2371310652643999</v>
       </c>
@@ -8880,10 +8932,10 @@
         <v>349420967.41981113</v>
       </c>
       <c r="I298" s="2">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="1">
         <v>2.2820215277050182</v>
       </c>
@@ -8909,10 +8961,10 @@
         <v>363158007.74695003</v>
       </c>
       <c r="I299" s="2">
-        <v>45589</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="1">
         <v>2.679298622040351</v>
       </c>
@@ -8938,10 +8990,10 @@
         <v>404343207.48212439</v>
       </c>
       <c r="I300" s="2">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="1">
         <v>2.5418495425875562</v>
       </c>
@@ -8967,10 +9019,10 @@
         <v>377594433.85125339</v>
       </c>
       <c r="I301" s="2">
-        <v>45591</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="1">
         <v>2.5313352972628582</v>
       </c>
@@ -8996,10 +9048,10 @@
         <v>387159137.20129412</v>
       </c>
       <c r="I302" s="2">
-        <v>45592</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="1">
         <v>2.5845433499098047</v>
       </c>
@@ -9025,10 +9077,10 @@
         <v>376600371.77422667</v>
       </c>
       <c r="I303" s="2">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="1">
         <v>2.510743803887725</v>
       </c>
@@ -9052,10 +9104,10 @@
         <v>374486797.11413074</v>
       </c>
       <c r="I304" s="2">
-        <v>45594</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="1">
         <v>2.4257734243482698</v>
       </c>
@@ -9079,10 +9131,10 @@
         <v>360728439.41200083</v>
       </c>
       <c r="I305" s="2">
-        <v>45595</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="1">
         <v>2.4011102418418879</v>
       </c>
@@ -9106,10 +9158,10 @@
         <v>315439473.41350359</v>
       </c>
       <c r="I306" s="2">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="1">
         <v>2.7034810007462875</v>
       </c>
@@ -9133,10 +9185,10 @@
         <v>346046885.38114184</v>
       </c>
       <c r="I307" s="2">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="1">
         <v>2.4055343932333866</v>
       </c>
@@ -9160,10 +9212,10 @@
         <v>302093269.82649726</v>
       </c>
       <c r="I308" s="2">
-        <v>45598</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="1">
         <v>2.5896371762214319</v>
       </c>
@@ -9187,10 +9239,10 @@
         <v>303379825.00617141</v>
       </c>
       <c r="I309" s="2">
-        <v>45599</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="1">
         <v>2.3506757407430809</v>
       </c>
@@ -9214,10 +9266,10 @@
         <v>279847343.16632622</v>
       </c>
       <c r="I310" s="2">
-        <v>45600</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="1">
         <v>2.3890533221880057</v>
       </c>
@@ -9243,10 +9295,10 @@
         <v>310361458.13518548</v>
       </c>
       <c r="I311" s="2">
-        <v>45601</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="1">
         <v>2.3515523078687393</v>
       </c>
@@ -9272,10 +9324,10 @@
         <v>265756984.61626211</v>
       </c>
       <c r="I312" s="2">
-        <v>45602</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="1">
         <v>2.1236063665215683</v>
       </c>
@@ -9301,10 +9353,10 @@
         <v>300093828.06045681</v>
       </c>
       <c r="I313" s="2">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="1">
         <v>2.1508838351556148</v>
       </c>
@@ -9330,10 +9382,10 @@
         <v>230526846.73804614</v>
       </c>
       <c r="I314" s="2">
-        <v>45604</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="1">
         <v>2.0914319636104106</v>
       </c>
@@ -9359,10 +9411,10 @@
         <v>216204165.56336206</v>
       </c>
       <c r="I315" s="2">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="1">
         <v>2.8765411968859054</v>
       </c>
@@ -9388,10 +9440,10 @@
         <v>208690405.25631717</v>
       </c>
       <c r="I316" s="2">
-        <v>45606</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="1">
         <v>2.6585312904981482</v>
       </c>
@@ -9417,10 +9469,10 @@
         <v>166436797.25178248</v>
       </c>
       <c r="I317" s="2">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="1">
         <v>2.5826203048931089</v>
       </c>
@@ -9446,10 +9498,10 @@
         <v>168983909.8899467</v>
       </c>
       <c r="I318" s="2">
-        <v>45608</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="1">
         <v>2.5739611711032491</v>
       </c>
@@ -9475,10 +9527,10 @@
         <v>138411924.56920576</v>
       </c>
       <c r="I319" s="2">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="1">
         <v>2.1834102153263215</v>
       </c>
@@ -9504,10 +9556,10 @@
         <v>162460380.77358308</v>
       </c>
       <c r="I320" s="2">
-        <v>45610</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="1">
         <v>2.3510190451096373</v>
       </c>
@@ -9533,10 +9585,10 @@
         <v>145336146.97754887</v>
       </c>
       <c r="I321" s="2">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="1">
         <v>2.2682993282962505</v>
       </c>
@@ -9562,10 +9614,10 @@
         <v>121701920.54935566</v>
       </c>
       <c r="I322" s="2">
-        <v>45612</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="1">
         <v>2.373515617045669</v>
       </c>
@@ -9591,10 +9643,10 @@
         <v>145511417.83567151</v>
       </c>
       <c r="I323" s="2">
-        <v>45613</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="1">
         <v>2.3573041482493324</v>
       </c>
@@ -9620,10 +9672,10 @@
         <v>123561462.33224745</v>
       </c>
       <c r="I324" s="2">
-        <v>45614</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="1">
         <v>2.630292291418574</v>
       </c>
@@ -9649,10 +9701,10 @@
         <v>149492018.86831936</v>
       </c>
       <c r="I325" s="2">
-        <v>45615</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="1">
         <v>2.5452267038054428</v>
       </c>
@@ -9678,10 +9730,10 @@
         <v>143378705.91981789</v>
       </c>
       <c r="I326" s="2">
-        <v>45616</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="1">
         <v>2.7209079327957086</v>
       </c>
@@ -9707,10 +9759,10 @@
         <v>129479953.5214752</v>
       </c>
       <c r="I327" s="2">
-        <v>45617</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="15">
       <c r="A328" s="1">
         <v>2.7131048425662136</v>
       </c>
@@ -9736,10 +9788,10 @@
         <v>122614624.15465575</v>
       </c>
       <c r="I328" s="2">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="15">
       <c r="A329" s="1">
         <v>2.5447069005997367</v>
       </c>
@@ -9763,10 +9815,10 @@
         <v>121999982.71197376</v>
       </c>
       <c r="I329" s="2">
-        <v>45619</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="15">
       <c r="A330" s="1">
         <v>2.5183232749631737</v>
       </c>
@@ -9790,10 +9842,10 @@
         <v>97412658.514071584</v>
       </c>
       <c r="I330" s="2">
-        <v>45620</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="15">
       <c r="A331" s="1">
         <v>2.638881462296935</v>
       </c>
@@ -9817,10 +9869,10 @@
         <v>120669471.41002291</v>
       </c>
       <c r="I331" s="2">
-        <v>45621</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="15">
       <c r="A332" s="1">
         <v>2.5138676073322408</v>
       </c>
@@ -9844,10 +9896,10 @@
         <v>100849766.2682559</v>
       </c>
       <c r="I332" s="2">
-        <v>45622</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="15">
       <c r="A333" s="1">
         <v>2.4917135893482678</v>
       </c>
@@ -9871,10 +9923,10 @@
         <v>119737813.53764756</v>
       </c>
       <c r="I333" s="2">
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="15">
       <c r="A334" s="1">
         <v>2.5974824523363256</v>
       </c>
@@ -9898,10 +9950,10 @@
         <v>97512132.530243799</v>
       </c>
       <c r="I334" s="2">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15">
       <c r="A335" s="1">
         <v>2.2524565532636185</v>
       </c>
@@ -9927,10 +9979,10 @@
         <v>120241115.90956876</v>
       </c>
       <c r="I335" s="2">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="15">
       <c r="A336" s="1">
         <v>2.3824842761489378</v>
       </c>
@@ -9956,10 +10008,10 @@
         <v>83559241.480262488</v>
       </c>
       <c r="I336" s="2">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15">
       <c r="A337" s="1">
         <v>2.22907488361925</v>
       </c>
@@ -9985,10 +10037,10 @@
         <v>96519685.551091269</v>
       </c>
       <c r="I337" s="2">
-        <v>45627</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="15">
       <c r="A338" s="1">
         <v>2.4265693801257693</v>
       </c>
@@ -10014,10 +10066,10 @@
         <v>72408974.168457314</v>
       </c>
       <c r="I338" s="2">
-        <v>45628</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="15">
       <c r="A339" s="1">
         <v>2.2872962825746974</v>
       </c>
@@ -10043,10 +10095,10 @@
         <v>44125327.830132447</v>
       </c>
       <c r="I339" s="2">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15">
       <c r="A340" s="1">
         <v>2.3506731768947158</v>
       </c>
@@ -10072,10 +10124,10 @@
         <v>75139233.55657585</v>
       </c>
       <c r="I340" s="2">
-        <v>45630</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15">
       <c r="A341" s="1">
         <v>2.2983458045345482</v>
       </c>
@@ -10101,10 +10153,10 @@
         <v>62754895.31346409</v>
       </c>
       <c r="I341" s="2">
-        <v>45631</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="15">
       <c r="A342" s="1">
         <v>2.5908501928449925</v>
       </c>
@@ -10130,10 +10182,10 @@
         <v>39457064.70950231</v>
       </c>
       <c r="I342" s="2">
-        <v>45632</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15">
       <c r="A343" s="1">
         <v>2.6345329614003843</v>
       </c>
@@ -10159,10 +10211,10 @@
         <v>72110029.078405559</v>
       </c>
       <c r="I343" s="2">
-        <v>45633</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="15">
       <c r="A344" s="1">
         <v>2.5575718860904932</v>
       </c>
@@ -10188,10 +10240,10 @@
         <v>73968605.760781631</v>
       </c>
       <c r="I344" s="2">
-        <v>45634</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="15">
       <c r="A345" s="1">
         <v>2.4924676060569539</v>
       </c>
@@ -10217,10 +10269,10 @@
         <v>60358205.689319149</v>
       </c>
       <c r="I345" s="2">
-        <v>45635</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="15">
       <c r="A346" s="1">
         <v>2.4419505451067423</v>
       </c>
@@ -10246,10 +10298,10 @@
         <v>95977479.78406103</v>
       </c>
       <c r="I346" s="2">
-        <v>45636</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15">
       <c r="A347" s="1">
         <v>2.6413381959842446</v>
       </c>
@@ -10275,10 +10327,10 @@
         <v>42396442.412740715</v>
       </c>
       <c r="I347" s="2">
-        <v>45637</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="15">
       <c r="A348" s="1">
         <v>2.1986280276004546</v>
       </c>
@@ -10304,10 +10356,10 @@
         <v>34865839.802101247</v>
       </c>
       <c r="I348" s="2">
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="15">
       <c r="A349" s="1">
         <v>2.362961691382901</v>
       </c>
@@ -10333,10 +10385,10 @@
         <v>53756376.564425878</v>
       </c>
       <c r="I349" s="2">
-        <v>45639</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15">
       <c r="A350" s="1">
         <v>2.1843218329736867</v>
       </c>
@@ -10362,10 +10414,10 @@
         <v>57209696.749229044</v>
       </c>
       <c r="I350" s="2">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15">
       <c r="A351" s="1">
         <v>2.339236695354117</v>
       </c>
@@ -10391,10 +10443,10 @@
         <v>37894551.969799995</v>
       </c>
       <c r="I351" s="2">
-        <v>45641</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="15">
       <c r="A352" s="1">
         <v>2.4672481602747265</v>
       </c>
@@ -10420,10 +10472,10 @@
         <v>47385116.897129275</v>
       </c>
       <c r="I352" s="2">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15">
       <c r="A353" s="1">
         <v>2.4430043298301447</v>
       </c>
@@ -10449,10 +10501,10 @@
         <v>24998469.356256239</v>
       </c>
       <c r="I353" s="2">
-        <v>45643</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15">
       <c r="A354" s="1">
         <v>2.3260001892340219</v>
       </c>
@@ -10478,10 +10530,10 @@
         <v>91093701.723334387</v>
       </c>
       <c r="I354" s="2">
-        <v>45644</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="15">
       <c r="A355" s="1">
         <v>2.3639690641961386</v>
       </c>
@@ -10507,10 +10559,10 @@
         <v>88249147.737193435</v>
       </c>
       <c r="I355" s="2">
-        <v>45645</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="15">
       <c r="A356" s="1">
         <v>2.3272101194217472</v>
       </c>
@@ -10536,10 +10588,10 @@
         <v>10558017.814670216</v>
       </c>
       <c r="I356" s="2">
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="15">
       <c r="A357" s="1">
         <v>2.3834435979455222</v>
       </c>
@@ -10565,10 +10617,10 @@
         <v>89244785.496223897</v>
       </c>
       <c r="I357" s="2">
-        <v>45647</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9">
+        <v>45860</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="15">
       <c r="A358" s="1">
         <v>2.2921676143427847</v>
       </c>
@@ -10594,10 +10646,10 @@
         <v>25860319.946921114</v>
       </c>
       <c r="I358" s="2">
-        <v>45648</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="15">
       <c r="A359" s="1">
         <v>2.6234044418321627</v>
       </c>
@@ -10623,10 +10675,10 @@
         <v>42737769.422147617</v>
       </c>
       <c r="I359" s="2">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="15">
       <c r="A360" s="1">
         <v>2.6093097357181341</v>
       </c>
@@ -10652,10 +10704,10 @@
         <v>63579593.936828606</v>
       </c>
       <c r="I360" s="2">
-        <v>45650</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="15">
       <c r="A361" s="1">
         <v>2.5396780276717505</v>
       </c>
@@ -10681,7 +10733,7 @@
         <v>42396415.165116481</v>
       </c>
       <c r="I361" s="2">
-        <v>45651</v>
+        <v>45864</v>
       </c>
     </row>
     <row r="362" spans="1:9">
